--- a/Output_testing/R1_201907/Country/HKD/MN/KOREA REP_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KOREA REP_201907_HKD_MN.xlsx
@@ -810,136 +810,437 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>17011.284043</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>31.47914869754453</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>16135.254884</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>28.47110605410018</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>15790.529436</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>27.28770710800298</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10537.22023</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>31.20165595520186</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>21.22876697429417</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>8755.545482</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>16.20201728801338</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>10164.296812</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>17.93518445046488</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>8895.841696</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>15.37295653470504</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>4696.815369</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.90769235432811</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3266.364765</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.044363369510937</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5321.908878</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.390656247150195</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5331.366595</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>9.213166076501347</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2330.328199</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.900311196011052</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-31.81020950734646</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1695.538787</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.137571359311368</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2445.863089</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.315793453611989</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>4776.508695</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>8.254312864952727</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1561.18142</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.622798469354331</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-29.87381475123093</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2428.334863</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.493600485805986</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2165.786585</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.821590671816899</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2133.801295</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.687434610766744</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1166.368055</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.453720618426133</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-2.826067558657708</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>600.756289</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.111691304701827</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>909.13446</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.604193042761549</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>900.991949</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.557009504375985</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1025.543312</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.036725900164871</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>83.58817129733218</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1392.507935</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.576816907975468</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1570.866944</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.771838417244568</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1887.670718</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.262094908084733</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>996.253694</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.949996709358607</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-8.461500815067724</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>149.849371</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.277294213653647</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>320.327114</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5652261027336766</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>200.15529</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3458895378887914</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>947.691681</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.80620022517731</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2254.964893</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.172781725063198</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2009.814335</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.546373298235146</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1547.718265</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.674621067786377</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>813.78752</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.409697972088123</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-18.77471910698331</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1243.4421</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.300972616984422</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1198.227469</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.114305698428348</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1302.003088</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.249999220295898</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>695.575046</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.059660214230495</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-11.95728469871655</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>15241.259266</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.20374203143523</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>14430.904596</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>25.46373256345256</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>15100.236937</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>26.09480856663938</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>9000.584806000001</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>26.65154038565912</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>4.241918672206491</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1272,437 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>132.957992</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>12.73316207431384</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>202.902836</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>17.81644842738524</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>279.46178</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>24.15515021940033</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>294.619488</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>41.38467293681933</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>80.09229798269379</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>381.791025</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>36.56348089134354</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>349.007164</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>30.64554572413163</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>354.319045</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>30.62540343645369</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>145.719339</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>20.46893512042388</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-42.53974652239777</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>115.306878</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.04274473291634</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>126.203762</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11.08167269290904</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>115.252603</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.961805648850836</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>75.114412</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>10.55118720952192</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>6.229085300098847</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>35.446561</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.394657210151399</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>54.400011</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.776744423772814</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>50.619113</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.37523971431013</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>44.374805</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.233249551910615</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>33.39334532170272</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>53.373871</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.111525375447302</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>45.274753</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.975475738974418</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>81.39518099999999</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.035354974802923</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>26.722997</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.753731629377497</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>57.49162019898178</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PULP AND WASTE PAPER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>10.648452</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.9350169747725321</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>18.131351</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.567174971424266</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>13.257969</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.862323210851176</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>41.77448863807096</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>22.489043</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>2.153737621242152</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>23.351074</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.050406065517272</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>28.711923</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.481701838272323</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>13.090862</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.838849989214008</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-10.35507393507437</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1.207563</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1156462666339353</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>5.705746</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.5010089131960661</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>14.389818</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.243777290117564</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>12.541538</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.761687428683235</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>228.1395955482098</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>19.623077</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.879268903502546</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>22.390896</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.966094962945449</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>25.178618</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.176302248224774</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>11.265728</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.582476678104769</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-10.44798946271869</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>6.135436</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.5875803312716983</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>9.919169999999999</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.8709803383303467</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>12.13757</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.0491052717423</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>8.77556</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.232687229561115</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>45.86937586851152</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>275.49243</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>26.38344418917338</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>289.047332</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>25.38060573806519</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>177.347904</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>15.32898438640085</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>66.422138</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>9.330199015532465</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-48.21416019107222</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1734,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>16995.885236</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>32.07033350110167</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>16115.311653</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>29.01906379973174</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>15783.917167</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>27.83274700843041</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10533.027229</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>31.86087180102023</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>21.23360839297614</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>8754.374277999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>16.51903968463147</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>10164.151426</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>18.30272755825483</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>8895.738606999999</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>15.68640024413011</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>4696.802678</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.20714337341115</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3263.01875</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.157143219065209</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5319.356172</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.578637971920879</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5326.868113</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>9.393192511576242</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2327.271869</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.039658120334074</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-31.87416170769135</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1691.438936</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.191655510792045</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2444.248815</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.401392528558362</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4776.506603</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.422706382630142</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1561.170416</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.722312911788014</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-29.87424902957588</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2427.185227</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.57996971725593</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2165.100678</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.898726630957104</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2132.172449</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.759790153703769</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1166.011728</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.527015489147377</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-2.75693111537334</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>599.188941</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.130637733852131</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>905.608291</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.630741330975303</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>897.282864</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.582233781670217</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1025.183572</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.101030848004845</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>84.61767266115979</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1391.300372</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.625309968305485</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1565.161198</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.818407340770933</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1873.2809</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.303270842958602</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>983.712156</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.975585860551962</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-9.295317501427592</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>149.849371</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2827578108565379</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>320.327114</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5768174490264661</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>200.15529</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3529460709928358</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>947.691681</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.866629174953817</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2254.964893</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.254999086402753</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2009.780095</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.619038716473026</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1547.718265</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.729186326454817</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>813.78752</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.461588609265541</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-18.77471910698331</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1241.311854</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.342289594444213</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1196.834574</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.155156512543479</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1301.972982</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.295848631009084</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>695.575046</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.104013109125777</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-11.95564571348594</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>14227.14318</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>26.84586417329255</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>13327.653954</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>23.99929016078787</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>13974.265818</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>24.64167804644377</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>8309.210601000001</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>25.13415070239721</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>4.715604919107141</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2196,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>121718.405622</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>62.02922797236629</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>160872.949952</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>63.82436501259821</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>184900.793954</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>66.43597807351726</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>76466.926425</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>63.81524744283489</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-30.52428780429283</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>2411.914289</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.229141809060532</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>10514.011222</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>4.17130468596308</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>9647.359548</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.466354868966749</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>5565.300095</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>4.644504745517597</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>7.692550649498608</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>12712.046368</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.478218459455749</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>13169.493946</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.224834808409359</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>10782.40593</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.87418392656256</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>4322.406407</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.607251491685674</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-8.113685392784042</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>8397.180952999999</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>4.279308860456386</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>9730.126448999999</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.860308039884933</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>10440.051336</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.751173841997913</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4318.905167</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.604329542191916</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-24.14874899537914</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7247.159043</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.69324325382875</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>7603.36566</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.016541844684819</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>8867.901866</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.18629099058519</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>4267.56463</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.561483448780322</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-23.42839722122034</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3832.816087</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.953251208161606</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3723.492481</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.477249862701697</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4882.698103</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.754383078480528</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2256.182271</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.882890245905449</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-18.60343874247035</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>2455.826158</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.251519848922084</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>3324.732817</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.319046868630718</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3277.684946</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.177692104764718</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1922.810634</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.604675931558135</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>14.99776229874141</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2392.29838</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.219145295509206</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2946.252234</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.168889350621752</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2950.7266</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.060213985599835</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1352.110027</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.128399426745275</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-26.41360436820147</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>2245.292722</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.144229366182725</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2377.680212</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.9433153913022607</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1955.322589</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7025592798794296</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1228.314125</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.025085922621536</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>12.12004978032801</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1072.697767</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.5466602523642056</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1891.400154</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.7503897569467034</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2100.07241</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.754568769554709</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1086.337101</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.9065994168687017</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-31.06124177609581</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>31741.866323</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>16.17605367369247</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>35902.194793</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>14.24375437825647</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>38509.23249</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>13.8366010800911</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>17038.622904</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>14.21953238529051</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-23.28390867034373</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
